--- a/feature_importance.xlsx
+++ b/feature_importance.xlsx
@@ -4,7 +4,7 @@
   <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet r:id="rId1" sheetId="1" name="breast_cancer"/>
@@ -463,7 +463,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -843,7 +843,7 @@
   </sheetPr>
   <dimension ref="A1:AI8"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -884,7 +884,7 @@
     <col min="35" max="35" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="20.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -991,7 +991,7 @@
         <v>41</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="3" t="s">
         <v>19</v>
       </c>
@@ -1098,7 +1098,7 @@
         <v>0.0002771625004243106</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="3" t="s">
         <v>20</v>
       </c>
@@ -1205,7 +1205,7 @@
         <v>0.0005488137830980122</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
       <c r="A4" s="3" t="s">
         <v>21</v>
       </c>
@@ -1312,7 +1312,7 @@
         <v>26</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
       <c r="A5" s="3" t="s">
         <v>22</v>
       </c>
@@ -1419,7 +1419,7 @@
         <v>0.03186043581471765</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
       <c r="A6" s="3" t="s">
         <v>23</v>
       </c>
@@ -1526,7 +1526,7 @@
         <v>0.9613289547500696</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
       <c r="A7" s="3" t="s">
         <v>24</v>
       </c>
@@ -1633,7 +1633,7 @@
         <v>3.288897634614736</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
       <c r="A8" s="3" t="s">
         <v>25</v>
       </c>
@@ -2336,7 +2336,7 @@
   </sheetPr>
   <dimension ref="A1:AH8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2500,7 +2500,7 @@
         <v>0</v>
       </c>
       <c r="G2" s="4">
-        <v>0.001445511472411454</v>
+        <v>0.001445511472411</v>
       </c>
       <c r="H2" s="5">
         <v>0</v>
@@ -2604,7 +2604,7 @@
         <v>0</v>
       </c>
       <c r="G3" s="4">
-        <v>0.002282894914969802</v>
+        <v>0.00228289491497</v>
       </c>
       <c r="H3" s="5">
         <v>0</v>
